--- a/for_git/tipos de aprendizaje.xlsx
+++ b/for_git/tipos de aprendizaje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECU-04\Documents\for_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89BFB48-750D-4FD0-9C02-5F5C005A95B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6BF891-DB86-4C8E-B6AC-0D68A7CE666B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{873D8AB2-7E1A-410D-8C42-4EC1C7F54FE6}"/>
   </bookViews>
@@ -251,6 +251,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AC9A-42A7-913A-9089BB61E90B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -266,6 +271,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AC9A-42A7-913A-9089BB61E90B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -281,6 +291,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AC9A-42A7-913A-9089BB61E90B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -482,6 +497,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>GRAFICA-FELIPE</c:v>
+          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -523,6 +541,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A006-41BC-9DB7-FE1451E4F3F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -565,6 +588,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A006-41BC-9DB7-FE1451E4F3F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -607,7 +635,20 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A006-41BC-9DB7-FE1451E4F3F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>AUDITIVO</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$43:$C$45</c:f>
@@ -2201,7 +2242,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/for_git/tipos de aprendizaje.xlsx
+++ b/for_git/tipos de aprendizaje.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECU-04\Documents\for_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0em\Desktop\informatica\informatica\for_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6BF891-DB86-4C8E-B6AC-0D68A7CE666B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{873D8AB2-7E1A-410D-8C42-4EC1C7F54FE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,24 +124,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +176,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -181,11 +196,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -195,11 +210,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Gabriela</a:t>
+              <a:t>Felipe</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -213,11 +229,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -230,96 +246,208 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUDITIVO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AC9A-42A7-913A-9089BB61E90B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AC9A-42A7-913A-9089BB61E90B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-AC9A-42A7-913A-9089BB61E90B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$43:$G$45</c:f>
+              <c:f>Hoja1!$B$43:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B535-4ED0-9F0F-29BC0A7F9F9A}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CINESTESICO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$44:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VISUAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$45:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -328,10 +456,120 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="264734872"/>
+        <c:axId val="264736048"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="264734872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264736048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="264736048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264734872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -342,9 +580,15 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -354,12 +598,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -376,14 +620,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -409,7 +669,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -429,19 +689,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -449,11 +703,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Felipe</a:t>
+              <a:t>Gabriela</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -467,19 +722,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -490,188 +739,208 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GRAFICA-FELIPE</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUDITIVO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A006-41BC-9DB7-FE1451E4F3F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A006-41BC-9DB7-FE1451E4F3F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A006-41BC-9DB7-FE1451E4F3F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>AUDITIVO</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$43:$C$45</c:f>
+              <c:f>Hoja1!$F$43:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8E5-4F83-9E15-67A0859FA49B}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CINESTESICO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VISUAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -680,10 +949,120 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="264741928"/>
+        <c:axId val="264736440"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="264741928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264736440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="264736440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264741928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -694,9 +1073,15 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -706,11 +1091,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -730,25 +1116,30 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -851,136 +1242,167 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
@@ -991,537 +1413,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1529,10 +1448,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1548,16 +1467,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1569,20 +1489,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1593,14 +1513,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1612,13 +1532,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1630,22 +1551,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1657,16 +1586,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1675,14 +1605,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1694,14 +1624,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1712,10 +1642,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -1723,7 +1662,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1731,7 +1670,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1739,21 +1678,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:spPr/>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1761,14 +1691,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1780,19 +1710,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1801,7 +1724,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1816,8 +1739,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1827,7 +1751,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1835,9 +1759,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1848,10 +1772,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1859,7 +1789,561 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1870,25 +2354,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56152991-50EC-8F20-D668-2A865E51F250}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1906,25 +2384,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD7B035-B2B6-2716-2C61-0C55DCCFDEA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2238,11 +2710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E4FB2-41A7-433A-A78B-951CC155AC88}">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,889 +2722,938 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3">
         <v>13</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3">
         <v>15</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3">
         <v>18</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3">
         <v>19</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3">
         <v>21</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
         <v>24</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3">
         <v>25</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2"/>
+      <c r="E29" s="3">
         <v>27</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2"/>
+      <c r="E30" s="3">
         <v>28</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3">
         <v>29</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3">
         <v>30</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3">
         <v>31</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3">
         <v>32</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3">
         <v>33</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2"/>
+      <c r="E36" s="3">
         <v>34</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3">
         <v>35</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="1">
+      <c r="D38" s="2"/>
+      <c r="E38" s="3">
         <v>36</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="1">
+      <c r="D39" s="2"/>
+      <c r="E39" s="3">
         <v>37</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2"/>
+      <c r="E40" s="3">
         <v>38</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="1">
+      <c r="D41" s="2"/>
+      <c r="E41" s="3">
         <v>39</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="1">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3">
         <v>40</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
         <f>COUNTIF(C3:C42, "AUDITIVO")</f>
         <v>26</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
         <f>COUNTIF(G3:G42,"auditivo")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
         <f>COUNTIF(C4:C43, "CINESTESICO")</f>
         <v>6</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
         <f>COUNTIF(G4:G43,"cinestesico")</f>
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7">
         <f>COUNTIF(C5:C44, "VISUAL")</f>
         <v>7</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7">
         <f>COUNTIF(G5:G44,"visual")</f>
         <v>8</v>
       </c>
     </row>
+    <row r="46" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>

--- a/for_git/tipos de aprendizaje.xlsx
+++ b/for_git/tipos de aprendizaje.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0em\Desktop\informatica\informatica\for_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECU-04\Documents\for_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C3B279-CAA3-4091-8EC7-B61B6EE4F086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,19 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,21 +132,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,7 +163,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -215,7 +202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -346,6 +332,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B778-4912-86FD-B500AEBA0B6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -397,6 +388,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B778-4912-86FD-B500AEBA0B6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -448,6 +444,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B778-4912-86FD-B500AEBA0B6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -580,7 +581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -708,7 +708,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -839,6 +838,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BAA-4BEF-946C-9D1C94B03506}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -890,6 +894,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BAA-4BEF-946C-9D1C94B03506}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -941,6 +950,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BAA-4BEF-946C-9D1C94B03506}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1073,7 +1087,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2366,7 +2379,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2396,7 +2415,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2710,30 +2735,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2757,20 +2784,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2778,20 +2805,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2799,20 +2826,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2820,20 +2847,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2841,20 +2868,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2862,20 +2889,20 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2883,20 +2910,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2904,20 +2931,20 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2925,20 +2952,20 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2946,20 +2973,20 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2967,20 +2994,20 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2988,20 +3015,20 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3009,20 +3036,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -3030,20 +3057,20 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -3051,20 +3078,20 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -3072,20 +3099,20 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3093,20 +3120,20 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>17</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3114,20 +3141,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3135,20 +3162,20 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>19</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3156,20 +3183,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3177,20 +3204,20 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3198,20 +3225,20 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>22</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3219,20 +3246,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>23</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3240,20 +3267,20 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>24</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3261,20 +3288,20 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>25</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3282,20 +3309,20 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>26</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3303,20 +3330,20 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>27</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3324,20 +3351,20 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>28</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3345,20 +3372,20 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>29</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3366,20 +3393,20 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>30</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3387,20 +3414,20 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>31</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3408,20 +3435,20 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>32</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3429,20 +3456,20 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>33</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3450,20 +3477,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>34</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3471,20 +3498,20 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>35</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3492,20 +3519,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>36</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3513,20 +3540,20 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>37</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3534,20 +3561,20 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>38</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3555,20 +3582,20 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>39</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3576,20 +3603,20 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>40</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3616,39 +3643,39 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5">
         <f>COUNTIF(C4:C43, "CINESTESICO")</f>
         <v>6</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
         <f>COUNTIF(G4:G43,"cinestesico")</f>
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5">
         <f>COUNTIF(C5:C44, "VISUAL")</f>
         <v>7</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
         <f>COUNTIF(G5:G44,"visual")</f>
         <v>8</v>
       </c>
